--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trict\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D16BD4-70C8-4822-B8C8-8C23440D5FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D578E9FE-6783-41B5-A6B2-FA2873D5FCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27630" yWindow="1080" windowWidth="23970" windowHeight="15435" xr2:uid="{E495B633-60FD-4117-9D95-E7CB956CAA99}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="23100" windowHeight="15435" xr2:uid="{3C60B064-D8CD-4C20-A11F-5902EC78B18D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,49 +36,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike </t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Lana</t>
-  </si>
-  <si>
-    <t>Sher</t>
-  </si>
-  <si>
-    <t>SDET</t>
-  </si>
-  <si>
-    <t>Laka</t>
-  </si>
-  <si>
-    <t>Sharet</t>
-  </si>
-  <si>
-    <t>CEO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>LMS03</t>
+  </si>
+  <si>
+    <t>Verify users submit registration form 
+and get a confirmation message</t>
+  </si>
+  <si>
+    <t>QA1 env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User go to the registration form page
+2. user enter a first name
+3. user enter a last name
+4. user enter username
+5. enter an email
+6. enter phone number
+7. select a gender
+8. enter DOB
+9. clicks the sign up button
+10. see "You've successfully completed registration!" 
+on the next page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url: http://practice.cydeo.com/registration_form
+first name: 
+Asiya, Muhtar, Aysun, Adam
+last name:
+Joe, Ali, Ahmat, Jimmy
+Username: 
+asiya1
+MuhtarJava
+AysunA
+Adam89
+password:
+Ab12345!
+Muhtar123@
+qwer1234!@#
+12345678
+email:
+abc@gmial.com
+ab12@outlook.com
+asd@cydeo.com
+abd.tc@cydeo.edu
+phone number: 
+122-222-2345
+632-265-2344
+856-222-2363
+200-222-9521
+DOB:
+01/05/1999
+11/23/2010
+06/05/1998
+02/05/1985
+</t>
+  </si>
+  <si>
+    <t>Users should see "You've successfully
+completed registration!" message
+in the next page.</t>
+  </si>
+  <si>
+    <t>users able to see the "You've successfully
+completed registration!" message</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Test Case
+ID</t>
+  </si>
+  <si>
+    <t>Scenario/ Descriotion</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Test Status
+pass/fail</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +149,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,12 +179,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,65 +540,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369C9D77-1692-48E6-A930-E79744318DAE}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B326A70-0097-4224-B7CB-2339DFAE411E}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.42578125"/>
+    <col min="2" max="2" customWidth="true" width="26.42578125"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125"/>
+    <col min="4" max="4" customWidth="true" width="34.140625"/>
+    <col min="5" max="5" customWidth="true" width="30.5703125"/>
+    <col min="6" max="6" customWidth="true" width="29.42578125"/>
+    <col min="7" max="7" customWidth="true" width="23.5703125"/>
+    <col min="8" max="8" customWidth="true" width="21.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>